--- a/data/2021Usage.xlsx
+++ b/data/2021Usage.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f5776974f264d7a/CodeProjects/Capstone/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f5776974f264d7a/CodeProjects/electricity-cost-prediction/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE28727B-37EC-4CFD-935C-13FA3EB23BE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="8_{AE28727B-37EC-4CFD-935C-13FA3EB23BE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDE6A1F3-4A39-4678-BB2A-C3682F05049A}"/>
   <bookViews>
-    <workbookView xWindow="11736" yWindow="360" windowWidth="11184" windowHeight="12000" xr2:uid="{DDAED975-768D-4302-BBEA-36F2E8418313}"/>
+    <workbookView xWindow="10224" yWindow="240" windowWidth="11184" windowHeight="12000" xr2:uid="{DDAED975-768D-4302-BBEA-36F2E8418313}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Months</t>
   </si>
@@ -47,40 +47,7 @@
     <t>MonthlyTotal</t>
   </si>
   <si>
-    <t xml:space="preserve">January </t>
-  </si>
-  <si>
-    <t>February</t>
-  </si>
-  <si>
-    <t>March</t>
-  </si>
-  <si>
-    <t>April</t>
-  </si>
-  <si>
-    <t>May</t>
-  </si>
-  <si>
-    <t>June</t>
-  </si>
-  <si>
-    <t>July</t>
-  </si>
-  <si>
-    <t>August</t>
-  </si>
-  <si>
-    <t>September</t>
-  </si>
-  <si>
-    <t>October</t>
-  </si>
-  <si>
-    <t>November</t>
-  </si>
-  <si>
-    <t>December</t>
+    <t>Year</t>
   </si>
 </sst>
 </file>
@@ -133,6 +100,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -452,159 +423,198 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D577FCAE-9AE8-4922-BC3B-3F93AB3578AE}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="2" max="2" width="21.109375" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2021</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>12.69</v>
+      </c>
+      <c r="D2">
+        <v>91.36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2021</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>13.35</v>
+      </c>
+      <c r="D3">
+        <v>96.12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2021</v>
+      </c>
+      <c r="B4">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>12.69</v>
-      </c>
-      <c r="C2">
-        <v>91.36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="C4">
+        <v>13.3</v>
+      </c>
+      <c r="D4">
+        <v>95.76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2021</v>
+      </c>
+      <c r="B5">
         <v>4</v>
       </c>
-      <c r="B3">
-        <v>13.35</v>
-      </c>
-      <c r="C3">
-        <v>96.12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="C5">
+        <v>13.76</v>
+      </c>
+      <c r="D5">
+        <v>99.07</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2021</v>
+      </c>
+      <c r="B6">
         <v>5</v>
       </c>
-      <c r="B4">
-        <v>13.3</v>
-      </c>
-      <c r="C4">
-        <v>95.76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="C6">
+        <v>13.89</v>
+      </c>
+      <c r="D6">
+        <v>100.08</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2021</v>
+      </c>
+      <c r="B7">
         <v>6</v>
       </c>
-      <c r="B5">
-        <v>13.76</v>
-      </c>
-      <c r="C5">
-        <v>99.07</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="C7">
+        <v>13.85</v>
+      </c>
+      <c r="D7">
+        <v>99.72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2021</v>
+      </c>
+      <c r="B8">
         <v>7</v>
       </c>
-      <c r="B6">
+      <c r="C8">
+        <v>13.87</v>
+      </c>
+      <c r="D8">
+        <v>99.86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2021</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>13.97</v>
+      </c>
+      <c r="D9">
+        <v>100.58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2021</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>14.19</v>
+      </c>
+      <c r="D10">
+        <v>102.16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2021</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>14.11</v>
+      </c>
+      <c r="D11">
+        <v>101.59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2021</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
         <v>13.89</v>
       </c>
-      <c r="C6">
+      <c r="D12">
         <v>100.08</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>13.85</v>
-      </c>
-      <c r="C7">
-        <v>99.72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>13.87</v>
-      </c>
-      <c r="C8">
-        <v>99.86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>13.97</v>
-      </c>
-      <c r="C9">
-        <v>100.58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>14.19</v>
-      </c>
-      <c r="C10">
-        <v>102.16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2021</v>
+      </c>
+      <c r="B13">
         <v>12</v>
       </c>
-      <c r="B11">
-        <v>14.11</v>
-      </c>
-      <c r="C11">
-        <v>101.59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12">
-        <v>13.89</v>
-      </c>
-      <c r="C12">
-        <v>100.08</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13">
+      <c r="C13">
         <v>13.64</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>98.2</v>
       </c>
     </row>
